--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2515"/>
+  <dimension ref="A1:G2446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66161,10 +66161,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -66198,10 +66196,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2420">
@@ -66231,10 +66227,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2421">
@@ -66264,10 +66258,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -66301,10 +66293,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2423">
@@ -66338,10 +66328,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -66371,10 +66359,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -66408,10 +66394,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2426">
@@ -66445,10 +66429,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -66478,10 +66460,8 @@
         </is>
       </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -66507,10 +66487,8 @@
       </c>
       <c r="E2428" t="inlineStr"/>
       <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -66536,10 +66514,8 @@
       </c>
       <c r="E2429" t="inlineStr"/>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -66557,10 +66533,8 @@
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2431">
@@ -66586,10 +66560,8 @@
       </c>
       <c r="E2431" t="inlineStr"/>
       <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2432">
@@ -66615,10 +66587,8 @@
       </c>
       <c r="E2432" t="inlineStr"/>
       <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -66636,46 +66606,44 @@
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr"/>
       <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
       <c r="C2434" t="inlineStr"/>
       <c r="D2434" t="inlineStr"/>
       <c r="E2434" t="inlineStr"/>
       <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
+      <c r="G2434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2435" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/04</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
-      <c r="D2435" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr"/>
+      <c r="D2435" t="inlineStr"/>
       <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
       <c r="G2435" t="inlineStr">
@@ -66687,189 +66655,149 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr"/>
       <c r="C2436" t="inlineStr"/>
-      <c r="D2436" t="inlineStr">
-        <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F2436" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
-      <c r="G2436" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr"/>
+      <c r="F2436" t="inlineStr"/>
+      <c r="G2436" t="inlineStr"/>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr"/>
       <c r="D2437" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>$6.67T</t>
+        </is>
+      </c>
+      <c r="E2437" t="inlineStr"/>
+      <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2438">
       <c r="A2438" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2438" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C2438" t="inlineStr"/>
       <c r="D2438" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr"/>
       <c r="F2438" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G2438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2439">
       <c r="A2439" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr"/>
       <c r="D2439" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E2439" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr"/>
       <c r="F2439" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G2439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr"/>
       <c r="D2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E2440" t="inlineStr"/>
       <c r="F2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G2440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr"/>
       <c r="D2441" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr"/>
       <c r="F2441" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G2441" t="inlineStr">
@@ -66881,24 +66809,24 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr"/>
       <c r="D2442" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E2442" t="inlineStr"/>
       <c r="F2442" t="inlineStr">
         <is>
-          <t>-10.0K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G2442" t="inlineStr">
@@ -66910,30 +66838,18 @@
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr"/>
-      <c r="D2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="F2443" t="inlineStr">
-        <is>
-          <t>3.0K</t>
-        </is>
-      </c>
+      <c r="D2443" t="inlineStr"/>
+      <c r="E2443" t="inlineStr"/>
+      <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr">
         <is>
           <t>3</t>
@@ -66943,30 +66859,18 @@
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2444" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C2444" t="inlineStr"/>
-      <c r="D2444" t="inlineStr">
-        <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
-      <c r="F2444" t="inlineStr">
-        <is>
-          <t>140.0K</t>
-        </is>
-      </c>
+      <c r="D2444" t="inlineStr"/>
+      <c r="E2444" t="inlineStr"/>
+      <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr">
         <is>
           <t>3</t>
@@ -66976,1749 +66880,28 @@
     <row r="2445">
       <c r="A2445" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAY</t>
-        </is>
-      </c>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr"/>
       <c r="C2445" t="inlineStr"/>
-      <c r="D2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="D2445" t="inlineStr"/>
       <c r="E2445" t="inlineStr"/>
-      <c r="F2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="G2445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2445" t="inlineStr"/>
+      <c r="G2445" t="inlineStr"/>
     </row>
     <row r="2446">
       <c r="A2446" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2446" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
-        </is>
-      </c>
+          <t>Monday June 16 2025</t>
+        </is>
+      </c>
+      <c r="B2446" t="inlineStr"/>
       <c r="C2446" t="inlineStr"/>
-      <c r="D2446" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
+      <c r="D2446" t="inlineStr"/>
       <c r="E2446" t="inlineStr"/>
       <c r="F2446" t="inlineStr"/>
-      <c r="G2446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2447">
-      <c r="A2447" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr"/>
-      <c r="D2447" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
-      <c r="E2447" t="inlineStr"/>
-      <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr"/>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr"/>
-      <c r="D2448" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr"/>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr"/>
-      <c r="D2449" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2449" t="inlineStr"/>
-      <c r="F2449" t="inlineStr"/>
-      <c r="G2449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr"/>
-      <c r="C2450" t="inlineStr"/>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeAPR</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr"/>
-      <c r="D2451" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
-      <c r="G2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr"/>
-      <c r="C2452" t="inlineStr"/>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr"/>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr"/>
-      <c r="D2453" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2453" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2454">
-      <c r="A2454" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr"/>
-      <c r="D2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E2454" t="inlineStr"/>
-      <c r="F2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr"/>
-      <c r="D2455" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E2455" t="inlineStr"/>
-      <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr"/>
-      <c r="D2456" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E2456" t="inlineStr"/>
-      <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr"/>
-      <c r="C2457" t="inlineStr"/>
-      <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
-      <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr"/>
-      <c r="D2458" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E2458" t="inlineStr"/>
-      <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C2459" t="inlineStr"/>
-      <c r="D2459" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2459" t="inlineStr"/>
-      <c r="F2459" t="inlineStr"/>
-      <c r="G2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2460" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2460" t="inlineStr"/>
-      <c r="D2460" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E2460" t="inlineStr"/>
-      <c r="F2460" t="inlineStr"/>
-      <c r="G2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2461" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2461" t="inlineStr"/>
-      <c r="D2461" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E2461" t="inlineStr"/>
-      <c r="F2461" t="inlineStr"/>
-      <c r="G2461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr"/>
-      <c r="C2462" t="inlineStr"/>
-      <c r="D2462" t="inlineStr"/>
-      <c r="E2462" t="inlineStr"/>
-      <c r="F2462" t="inlineStr"/>
-      <c r="G2462" t="inlineStr"/>
-    </row>
-    <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2463" t="inlineStr"/>
-      <c r="D2463" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E2463" t="inlineStr"/>
-      <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C2464" t="inlineStr"/>
-      <c r="D2464" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E2464" t="inlineStr"/>
-      <c r="F2464" t="inlineStr"/>
-      <c r="G2464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr"/>
-      <c r="D2465" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E2465" t="inlineStr"/>
-      <c r="F2465" t="inlineStr"/>
-      <c r="G2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr"/>
-      <c r="D2466" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E2466" t="inlineStr"/>
-      <c r="F2466" t="inlineStr"/>
-      <c r="G2466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr"/>
-      <c r="D2467" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E2467" t="inlineStr"/>
-      <c r="F2467" t="inlineStr"/>
-      <c r="G2467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2468">
-      <c r="A2468" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2468" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2468" t="inlineStr"/>
-      <c r="D2468" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E2468" t="inlineStr"/>
-      <c r="F2468" t="inlineStr"/>
-      <c r="G2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2469">
-      <c r="A2469" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2469" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2469" t="inlineStr"/>
-      <c r="D2469" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2469" t="inlineStr"/>
-      <c r="F2469" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2469" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2470">
-      <c r="A2470" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2470" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2470" t="inlineStr"/>
-      <c r="D2470" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E2470" t="inlineStr"/>
-      <c r="F2470" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2470" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2471">
-      <c r="A2471" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2471" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2471" t="inlineStr"/>
-      <c r="D2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2471" t="inlineStr"/>
-      <c r="F2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2471" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2472">
-      <c r="A2472" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2472" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2472" t="inlineStr"/>
-      <c r="D2472" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E2472" t="inlineStr"/>
-      <c r="F2472" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G2472" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2473">
-      <c r="A2473" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2473" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C2473" t="inlineStr"/>
-      <c r="D2473" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E2473" t="inlineStr"/>
-      <c r="F2473" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2474">
-      <c r="A2474" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2474" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C2474" t="inlineStr"/>
-      <c r="D2474" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E2474" t="inlineStr"/>
-      <c r="F2474" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2475">
-      <c r="A2475" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2475" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2475" t="inlineStr"/>
-      <c r="D2475" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E2475" t="inlineStr"/>
-      <c r="F2475" t="inlineStr"/>
-      <c r="G2475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2476">
-      <c r="A2476" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2476" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2476" t="inlineStr"/>
-      <c r="D2476" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E2476" t="inlineStr"/>
-      <c r="F2476" t="inlineStr"/>
-      <c r="G2476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2477">
-      <c r="A2477" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2477" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2477" t="inlineStr"/>
-      <c r="D2477" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E2477" t="inlineStr"/>
-      <c r="F2477" t="inlineStr"/>
-      <c r="G2477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2478">
-      <c r="A2478" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2478" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2478" t="inlineStr"/>
-      <c r="D2478" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E2478" t="inlineStr"/>
-      <c r="F2478" t="inlineStr"/>
-      <c r="G2478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2479">
-      <c r="A2479" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2479" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2479" t="inlineStr"/>
-      <c r="D2479" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E2479" t="inlineStr"/>
-      <c r="F2479" t="inlineStr"/>
-      <c r="G2479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2480">
-      <c r="A2480" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2480" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2480" t="inlineStr"/>
-      <c r="D2480" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E2480" t="inlineStr"/>
-      <c r="F2480" t="inlineStr"/>
-      <c r="G2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2481">
-      <c r="A2481" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2481" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2481" t="inlineStr"/>
-      <c r="D2481" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E2481" t="inlineStr"/>
-      <c r="F2481" t="inlineStr"/>
-      <c r="G2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2482">
-      <c r="A2482" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2482" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2482" t="inlineStr"/>
-      <c r="D2482" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E2482" t="inlineStr"/>
-      <c r="F2482" t="inlineStr"/>
-      <c r="G2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2483">
-      <c r="A2483" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2483" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2483" t="inlineStr"/>
-      <c r="D2483" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E2483" t="inlineStr"/>
-      <c r="F2483" t="inlineStr"/>
-      <c r="G2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2484">
-      <c r="A2484" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2484" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2484" t="inlineStr"/>
-      <c r="D2484" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E2484" t="inlineStr"/>
-      <c r="F2484" t="inlineStr"/>
-      <c r="G2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2485">
-      <c r="A2485" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2485" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2485" t="inlineStr"/>
-      <c r="D2485" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E2485" t="inlineStr"/>
-      <c r="F2485" t="inlineStr"/>
-      <c r="G2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2486">
-      <c r="A2486" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2486" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C2486" t="inlineStr"/>
-      <c r="D2486" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E2486" t="inlineStr"/>
-      <c r="F2486" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G2486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2487">
-      <c r="A2487" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B2487" t="inlineStr"/>
-      <c r="C2487" t="inlineStr"/>
-      <c r="D2487" t="inlineStr"/>
-      <c r="E2487" t="inlineStr"/>
-      <c r="F2487" t="inlineStr"/>
-      <c r="G2487" t="inlineStr"/>
-    </row>
-    <row r="2488">
-      <c r="A2488" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2488" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2488" t="inlineStr"/>
-      <c r="D2488" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E2488" t="inlineStr"/>
-      <c r="F2488" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2489">
-      <c r="A2489" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2489" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2489" t="inlineStr"/>
-      <c r="D2489" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2489" t="inlineStr"/>
-      <c r="F2489" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2489" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2490">
-      <c r="A2490" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2490" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C2490" t="inlineStr"/>
-      <c r="D2490" t="inlineStr">
-        <is>
-          <t>247K</t>
-        </is>
-      </c>
-      <c r="E2490" t="inlineStr"/>
-      <c r="F2490" t="inlineStr"/>
-      <c r="G2490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2491">
-      <c r="A2491" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2491" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C2491" t="inlineStr"/>
-      <c r="D2491" t="inlineStr"/>
-      <c r="E2491" t="inlineStr"/>
-      <c r="F2491" t="inlineStr"/>
-      <c r="G2491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2492">
-      <c r="A2492" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2492" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2492" t="inlineStr"/>
-      <c r="D2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E2492" t="inlineStr"/>
-      <c r="F2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2493">
-      <c r="A2493" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2493" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C2493" t="inlineStr"/>
-      <c r="D2493" t="inlineStr"/>
-      <c r="E2493" t="inlineStr"/>
-      <c r="F2493" t="inlineStr"/>
-      <c r="G2493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2494">
-      <c r="A2494" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2494" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C2494" t="inlineStr"/>
-      <c r="D2494" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E2494" t="inlineStr"/>
-      <c r="F2494" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2495">
-      <c r="A2495" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2495" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2495" t="inlineStr"/>
-      <c r="D2495" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2495" t="inlineStr"/>
-      <c r="F2495" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2496">
-      <c r="A2496" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2496" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2496" t="inlineStr"/>
-      <c r="D2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E2496" t="inlineStr"/>
-      <c r="F2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2497">
-      <c r="A2497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2497" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2497" t="inlineStr"/>
-      <c r="D2497" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2497" t="inlineStr"/>
-      <c r="F2497" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G2497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2498">
-      <c r="A2498" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2498" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2498" t="inlineStr"/>
-      <c r="D2498" t="inlineStr">
-        <is>
-          <t>122Bcf</t>
-        </is>
-      </c>
-      <c r="E2498" t="inlineStr"/>
-      <c r="F2498" t="inlineStr"/>
-      <c r="G2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2499">
-      <c r="A2499" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2499" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2499" t="inlineStr"/>
-      <c r="D2499" t="inlineStr">
-        <is>
-          <t>4.170%</t>
-        </is>
-      </c>
-      <c r="E2499" t="inlineStr"/>
-      <c r="F2499" t="inlineStr"/>
-      <c r="G2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2500">
-      <c r="A2500" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2500" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2500" t="inlineStr"/>
-      <c r="D2500" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E2500" t="inlineStr"/>
-      <c r="F2500" t="inlineStr"/>
-      <c r="G2500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2501">
-      <c r="A2501" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2501" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2501" t="inlineStr"/>
-      <c r="D2501" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="E2501" t="inlineStr"/>
-      <c r="F2501" t="inlineStr"/>
-      <c r="G2501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2502">
-      <c r="A2502" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2502" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2502" t="inlineStr"/>
-      <c r="D2502" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E2502" t="inlineStr"/>
-      <c r="F2502" t="inlineStr"/>
-      <c r="G2502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2503">
-      <c r="A2503" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2503" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C2503" t="inlineStr"/>
-      <c r="D2503" t="inlineStr"/>
-      <c r="E2503" t="inlineStr"/>
-      <c r="F2503" t="inlineStr"/>
-      <c r="G2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2504">
-      <c r="A2504" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2504" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2504" t="inlineStr"/>
-      <c r="D2504" t="inlineStr"/>
-      <c r="E2504" t="inlineStr"/>
-      <c r="F2504" t="inlineStr"/>
-      <c r="G2504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2505">
-      <c r="A2505" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B2505" t="inlineStr"/>
-      <c r="C2505" t="inlineStr"/>
-      <c r="D2505" t="inlineStr"/>
-      <c r="E2505" t="inlineStr"/>
-      <c r="F2505" t="inlineStr"/>
-      <c r="G2505" t="inlineStr"/>
-    </row>
-    <row r="2506">
-      <c r="A2506" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2506" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C2506" t="inlineStr"/>
-      <c r="D2506" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
-      <c r="E2506" t="inlineStr"/>
-      <c r="F2506" t="inlineStr"/>
-      <c r="G2506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2507">
-      <c r="A2507" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2507" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2507" t="inlineStr"/>
-      <c r="D2507" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2507" t="inlineStr"/>
-      <c r="F2507" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G2507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2508">
-      <c r="A2508" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2508" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2508" t="inlineStr"/>
-      <c r="D2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2508" t="inlineStr"/>
-      <c r="F2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2509">
-      <c r="A2509" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2509" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2509" t="inlineStr"/>
-      <c r="D2509" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2509" t="inlineStr"/>
-      <c r="F2509" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2510">
-      <c r="A2510" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2510" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2510" t="inlineStr"/>
-      <c r="D2510" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2510" t="inlineStr"/>
-      <c r="F2510" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2511">
-      <c r="A2511" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2511" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2511" t="inlineStr"/>
-      <c r="D2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2511" t="inlineStr"/>
-      <c r="F2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2512">
-      <c r="A2512" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2512" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2512" t="inlineStr"/>
-      <c r="D2512" t="inlineStr"/>
-      <c r="E2512" t="inlineStr"/>
-      <c r="F2512" t="inlineStr"/>
-      <c r="G2512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2513">
-      <c r="A2513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2513" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2513" t="inlineStr"/>
-      <c r="D2513" t="inlineStr"/>
-      <c r="E2513" t="inlineStr"/>
-      <c r="F2513" t="inlineStr"/>
-      <c r="G2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2514">
-      <c r="A2514" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B2514" t="inlineStr"/>
-      <c r="C2514" t="inlineStr"/>
-      <c r="D2514" t="inlineStr"/>
-      <c r="E2514" t="inlineStr"/>
-      <c r="F2514" t="inlineStr"/>
-      <c r="G2514" t="inlineStr"/>
-    </row>
-    <row r="2515">
-      <c r="A2515" t="inlineStr">
-        <is>
-          <t>Monday June 16 2025</t>
-        </is>
-      </c>
-      <c r="B2515" t="inlineStr"/>
-      <c r="C2515" t="inlineStr"/>
-      <c r="D2515" t="inlineStr"/>
-      <c r="E2515" t="inlineStr"/>
-      <c r="F2515" t="inlineStr"/>
-      <c r="G2515" t="inlineStr"/>
+      <c r="G2446" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -66161,10 +66161,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -66198,10 +66196,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2420">
@@ -66231,10 +66227,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2421">
@@ -66264,10 +66258,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -66301,10 +66293,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2423">
@@ -66338,10 +66328,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -66371,10 +66359,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -66408,10 +66394,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2426">
@@ -66445,10 +66429,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -66478,10 +66460,8 @@
         </is>
       </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -66507,10 +66487,8 @@
       </c>
       <c r="E2428" t="inlineStr"/>
       <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -66536,10 +66514,8 @@
       </c>
       <c r="E2429" t="inlineStr"/>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -66557,10 +66533,8 @@
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2431">
@@ -66586,10 +66560,8 @@
       </c>
       <c r="E2431" t="inlineStr"/>
       <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2432">
@@ -66615,10 +66587,8 @@
       </c>
       <c r="E2432" t="inlineStr"/>
       <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -66636,10 +66606,8 @@
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr"/>
       <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2434">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2515"/>
+  <dimension ref="A1:G2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66973,25 +66973,21 @@
     <row r="2446">
       <c r="A2446" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C2446" t="inlineStr"/>
-      <c r="D2446" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
+      <c r="D2446" t="inlineStr"/>
       <c r="E2446" t="inlineStr"/>
       <c r="F2446" t="inlineStr"/>
       <c r="G2446" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -67003,13 +66999,13 @@
       </c>
       <c r="B2447" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
+          <t>Baker Hughes Oil Rig CountJUN/06</t>
         </is>
       </c>
       <c r="C2447" t="inlineStr"/>
       <c r="D2447" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>461</t>
         </is>
       </c>
       <c r="E2447" t="inlineStr"/>
@@ -67021,16 +67017,20 @@
       </c>
     </row>
     <row r="2448">
-      <c r="A2448" t="inlineStr"/>
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B2448" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/06</t>
         </is>
       </c>
       <c r="C2448" t="inlineStr"/>
       <c r="D2448" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>563</t>
         </is>
       </c>
       <c r="E2448" t="inlineStr"/>
@@ -67045,13 +67045,13 @@
       <c r="A2449" t="inlineStr"/>
       <c r="B2449" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYMAY</t>
+          <t>Used Car Prices MoMMAY</t>
         </is>
       </c>
       <c r="C2449" t="inlineStr"/>
       <c r="D2449" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E2449" t="inlineStr"/>
@@ -67063,118 +67063,110 @@
       </c>
     </row>
     <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr"/>
+      <c r="A2450" t="inlineStr"/>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYMAY</t>
+        </is>
+      </c>
       <c r="C2450" t="inlineStr"/>
-      <c r="D2450" t="inlineStr"/>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="E2450" t="inlineStr"/>
       <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
+      <c r="G2450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2451">
       <c r="A2451" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeAPR</t>
-        </is>
-      </c>
+          <t>Saturday June 07 2025</t>
+        </is>
+      </c>
+      <c r="B2451" t="inlineStr"/>
       <c r="C2451" t="inlineStr"/>
-      <c r="D2451" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
-      <c r="G2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D2451" t="inlineStr"/>
+      <c r="E2451" t="inlineStr"/>
+      <c r="F2451" t="inlineStr"/>
+      <c r="G2451" t="inlineStr"/>
     </row>
     <row r="2452">
       <c r="A2452" t="inlineStr">
         <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeAPR</t>
+        </is>
+      </c>
       <c r="C2452" t="inlineStr"/>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr"/>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>$10.17B</t>
+        </is>
+      </c>
+      <c r="E2452" t="inlineStr">
+        <is>
+          <t>$10.85B</t>
+        </is>
+      </c>
+      <c r="F2452" t="inlineStr">
+        <is>
+          <t>$9.0B</t>
+        </is>
+      </c>
+      <c r="G2452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2453">
       <c r="A2453" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
+          <t>Monday June 09 2025</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr"/>
       <c r="C2453" t="inlineStr"/>
-      <c r="D2453" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2453" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D2453" t="inlineStr"/>
+      <c r="E2453" t="inlineStr"/>
+      <c r="F2453" t="inlineStr"/>
+      <c r="G2453" t="inlineStr"/>
     </row>
     <row r="2454">
       <c r="A2454" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2454" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
+          <t>Wholesale Inventories MoMAPR</t>
         </is>
       </c>
       <c r="C2454" t="inlineStr"/>
       <c r="D2454" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E2454" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E2454" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2454" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="G2454" t="inlineStr">
@@ -67186,22 +67178,26 @@
     <row r="2455">
       <c r="A2455" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2455" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Consumer Inflation ExpectationsMAY</t>
         </is>
       </c>
       <c r="C2455" t="inlineStr"/>
       <c r="D2455" t="inlineStr">
         <is>
-          <t>4.250%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E2455" t="inlineStr"/>
-      <c r="F2455" t="inlineStr"/>
+      <c r="F2455" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G2455" t="inlineStr">
         <is>
           <t>3</t>
@@ -67216,13 +67212,13 @@
       </c>
       <c r="B2456" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C2456" t="inlineStr"/>
       <c r="D2456" t="inlineStr">
         <is>
-          <t>4.150%</t>
+          <t>4.250%</t>
         </is>
       </c>
       <c r="E2456" t="inlineStr"/>
@@ -67236,56 +67232,56 @@
     <row r="2457">
       <c r="A2457" t="inlineStr">
         <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2457" t="inlineStr"/>
-      <c r="D2457" t="inlineStr"/>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>4.150%</t>
+        </is>
+      </c>
       <c r="E2457" t="inlineStr"/>
       <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
+      <c r="G2457" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2458">
       <c r="A2458" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
+          <t>Tuesday June 10 2025</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr"/>
       <c r="C2458" t="inlineStr"/>
-      <c r="D2458" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
+      <c r="D2458" t="inlineStr"/>
       <c r="E2458" t="inlineStr"/>
       <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2458" t="inlineStr"/>
     </row>
     <row r="2459">
       <c r="A2459" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2459" t="inlineStr">
         <is>
-          <t>Redbook YoYJUN/07</t>
+          <t>NFIB Business Optimism IndexMAY</t>
         </is>
       </c>
       <c r="C2459" t="inlineStr"/>
       <c r="D2459" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>95.8</t>
         </is>
       </c>
       <c r="E2459" t="inlineStr"/>
@@ -67299,18 +67295,18 @@
     <row r="2460">
       <c r="A2460" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B2460" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Redbook YoYJUN/07</t>
         </is>
       </c>
       <c r="C2460" t="inlineStr"/>
       <c r="D2460" t="inlineStr">
         <is>
-          <t>3.930%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="E2460" t="inlineStr"/>
@@ -67324,18 +67320,18 @@
     <row r="2461">
       <c r="A2461" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2461" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2461" t="inlineStr"/>
       <c r="D2461" t="inlineStr">
         <is>
-          <t>3.824%</t>
+          <t>3.930%</t>
         </is>
       </c>
       <c r="E2461" t="inlineStr"/>
@@ -67349,56 +67345,56 @@
     <row r="2462">
       <c r="A2462" t="inlineStr">
         <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C2462" t="inlineStr"/>
-      <c r="D2462" t="inlineStr"/>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>3.824%</t>
+        </is>
+      </c>
       <c r="E2462" t="inlineStr"/>
       <c r="F2462" t="inlineStr"/>
-      <c r="G2462" t="inlineStr"/>
+      <c r="G2462" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2463">
       <c r="A2463" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
+          <t>Wednesday June 11 2025</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr"/>
       <c r="C2463" t="inlineStr"/>
-      <c r="D2463" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
+      <c r="D2463" t="inlineStr"/>
       <c r="E2463" t="inlineStr"/>
       <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2463" t="inlineStr"/>
     </row>
     <row r="2464">
       <c r="A2464" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2464" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
+          <t>API Crude Oil Stock ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2464" t="inlineStr"/>
       <c r="D2464" t="inlineStr">
         <is>
-          <t>6.92%</t>
+          <t>-3.3M</t>
         </is>
       </c>
       <c r="E2464" t="inlineStr"/>
@@ -67417,20 +67413,20 @@
       </c>
       <c r="B2465" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
+          <t>MBA 30-Year Mortgage RateJUN/06</t>
         </is>
       </c>
       <c r="C2465" t="inlineStr"/>
       <c r="D2465" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>6.92%</t>
         </is>
       </c>
       <c r="E2465" t="inlineStr"/>
       <c r="F2465" t="inlineStr"/>
       <c r="G2465" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -67442,13 +67438,13 @@
       </c>
       <c r="B2466" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
+          <t>MBA Mortgage ApplicationsJUN/06</t>
         </is>
       </c>
       <c r="C2466" t="inlineStr"/>
       <c r="D2466" t="inlineStr">
         <is>
-          <t>226.4</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="E2466" t="inlineStr"/>
@@ -67467,13 +67463,13 @@
       </c>
       <c r="B2467" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
+          <t>MBA Mortgage Market IndexJUN/06</t>
         </is>
       </c>
       <c r="C2467" t="inlineStr"/>
       <c r="D2467" t="inlineStr">
         <is>
-          <t>611.8</t>
+          <t>226.4</t>
         </is>
       </c>
       <c r="E2467" t="inlineStr"/>
@@ -67492,13 +67488,13 @@
       </c>
       <c r="B2468" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUN/06</t>
+          <t>MBA Mortgage Refinance IndexJUN/06</t>
         </is>
       </c>
       <c r="C2468" t="inlineStr"/>
       <c r="D2468" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>611.8</t>
         </is>
       </c>
       <c r="E2468" t="inlineStr"/>
@@ -67512,29 +67508,25 @@
     <row r="2469">
       <c r="A2469" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2469" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMMAY</t>
+          <t>MBA Purchase IndexJUN/06</t>
         </is>
       </c>
       <c r="C2469" t="inlineStr"/>
       <c r="D2469" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E2469" t="inlineStr"/>
-      <c r="F2469" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2469" t="inlineStr"/>
       <c r="G2469" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -67546,19 +67538,19 @@
       </c>
       <c r="B2470" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYMAY</t>
+          <t>Core Inflation Rate MoMMAY</t>
         </is>
       </c>
       <c r="C2470" t="inlineStr"/>
       <c r="D2470" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2470" t="inlineStr"/>
       <c r="F2470" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G2470" t="inlineStr">
@@ -67575,19 +67567,19 @@
       </c>
       <c r="B2471" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMMAY</t>
+          <t>Core Inflation Rate YoYMAY</t>
         </is>
       </c>
       <c r="C2471" t="inlineStr"/>
       <c r="D2471" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E2471" t="inlineStr"/>
       <c r="F2471" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G2471" t="inlineStr">
@@ -67604,19 +67596,19 @@
       </c>
       <c r="B2472" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYMAY</t>
+          <t>Inflation Rate MoMMAY</t>
         </is>
       </c>
       <c r="C2472" t="inlineStr"/>
       <c r="D2472" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2472" t="inlineStr"/>
       <c r="F2472" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2472" t="inlineStr">
@@ -67633,24 +67625,24 @@
       </c>
       <c r="B2473" t="inlineStr">
         <is>
-          <t>CPIMAY</t>
+          <t>Inflation Rate YoYMAY</t>
         </is>
       </c>
       <c r="C2473" t="inlineStr"/>
       <c r="D2473" t="inlineStr">
         <is>
-          <t>320.795</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E2473" t="inlineStr"/>
       <c r="F2473" t="inlineStr">
         <is>
-          <t>321.9</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G2473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -67662,19 +67654,19 @@
       </c>
       <c r="B2474" t="inlineStr">
         <is>
-          <t>CPI s.aMAY</t>
+          <t>CPIMAY</t>
         </is>
       </c>
       <c r="C2474" t="inlineStr"/>
       <c r="D2474" t="inlineStr">
         <is>
-          <t>320.321</t>
+          <t>320.795</t>
         </is>
       </c>
       <c r="E2474" t="inlineStr"/>
       <c r="F2474" t="inlineStr">
         <is>
-          <t>321.6</t>
+          <t>321.9</t>
         </is>
       </c>
       <c r="G2474" t="inlineStr">
@@ -67686,22 +67678,26 @@
     <row r="2475">
       <c r="A2475" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2475" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
+          <t>CPI s.aMAY</t>
         </is>
       </c>
       <c r="C2475" t="inlineStr"/>
       <c r="D2475" t="inlineStr">
         <is>
-          <t>-4.304M</t>
+          <t>320.321</t>
         </is>
       </c>
       <c r="E2475" t="inlineStr"/>
-      <c r="F2475" t="inlineStr"/>
+      <c r="F2475" t="inlineStr">
+        <is>
+          <t>321.6</t>
+        </is>
+      </c>
       <c r="G2475" t="inlineStr">
         <is>
           <t>2</t>
@@ -67716,13 +67712,13 @@
       </c>
       <c r="B2476" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
+          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2476" t="inlineStr"/>
       <c r="D2476" t="inlineStr">
         <is>
-          <t>5.219M</t>
+          <t>-4.304M</t>
         </is>
       </c>
       <c r="E2476" t="inlineStr"/>
@@ -67741,20 +67737,20 @@
       </c>
       <c r="B2477" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
+          <t>EIA Gasoline Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2477" t="inlineStr"/>
       <c r="D2477" t="inlineStr">
         <is>
-          <t>0.389M</t>
+          <t>5.219M</t>
         </is>
       </c>
       <c r="E2477" t="inlineStr"/>
       <c r="F2477" t="inlineStr"/>
       <c r="G2477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -67766,13 +67762,13 @@
       </c>
       <c r="B2478" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
+          <t>EIA Crude Oil Imports ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2478" t="inlineStr"/>
       <c r="D2478" t="inlineStr">
         <is>
-          <t>0.576M</t>
+          <t>0.389M</t>
         </is>
       </c>
       <c r="E2478" t="inlineStr"/>
@@ -67791,13 +67787,13 @@
       </c>
       <c r="B2479" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2479" t="inlineStr"/>
       <c r="D2479" t="inlineStr">
         <is>
-          <t>0.182M</t>
+          <t>0.576M</t>
         </is>
       </c>
       <c r="E2479" t="inlineStr"/>
@@ -67816,13 +67812,13 @@
       </c>
       <c r="B2480" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
+          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2480" t="inlineStr"/>
       <c r="D2480" t="inlineStr">
         <is>
-          <t>4.23M</t>
+          <t>0.182M</t>
         </is>
       </c>
       <c r="E2480" t="inlineStr"/>
@@ -67841,13 +67837,13 @@
       </c>
       <c r="B2481" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
+          <t>EIA Distillate Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2481" t="inlineStr"/>
       <c r="D2481" t="inlineStr">
         <is>
-          <t>-0.714M</t>
+          <t>4.23M</t>
         </is>
       </c>
       <c r="E2481" t="inlineStr"/>
@@ -67866,13 +67862,13 @@
       </c>
       <c r="B2482" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
+          <t>EIA Gasoline Production ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2482" t="inlineStr"/>
       <c r="D2482" t="inlineStr">
         <is>
-          <t>-0.282M</t>
+          <t>-0.714M</t>
         </is>
       </c>
       <c r="E2482" t="inlineStr"/>
@@ -67891,13 +67887,13 @@
       </c>
       <c r="B2483" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
+          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2483" t="inlineStr"/>
       <c r="D2483" t="inlineStr">
         <is>
-          <t>0.67M</t>
+          <t>-0.282M</t>
         </is>
       </c>
       <c r="E2483" t="inlineStr"/>
@@ -67911,18 +67907,18 @@
     <row r="2484">
       <c r="A2484" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2484" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2484" t="inlineStr"/>
       <c r="D2484" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>0.67M</t>
         </is>
       </c>
       <c r="E2484" t="inlineStr"/>
@@ -67936,18 +67932,18 @@
     <row r="2485">
       <c r="A2485" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2485" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2485" t="inlineStr"/>
       <c r="D2485" t="inlineStr">
         <is>
-          <t>4.342%</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E2485" t="inlineStr"/>
@@ -67961,73 +67957,69 @@
     <row r="2486">
       <c r="A2486" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2486" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementMAY</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C2486" t="inlineStr"/>
       <c r="D2486" t="inlineStr">
         <is>
-          <t>$258B</t>
+          <t>4.342%</t>
         </is>
       </c>
       <c r="E2486" t="inlineStr"/>
-      <c r="F2486" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
+      <c r="F2486" t="inlineStr"/>
       <c r="G2486" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2487">
       <c r="A2487" t="inlineStr">
         <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B2487" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementMAY</t>
+        </is>
+      </c>
       <c r="C2487" t="inlineStr"/>
-      <c r="D2487" t="inlineStr"/>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>$258B</t>
+        </is>
+      </c>
       <c r="E2487" t="inlineStr"/>
-      <c r="F2487" t="inlineStr"/>
-      <c r="G2487" t="inlineStr"/>
+      <c r="F2487" t="inlineStr">
+        <is>
+          <t>$-312.0B</t>
+        </is>
+      </c>
+      <c r="G2487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2488">
       <c r="A2488" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2488" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
+          <t>Thursday June 12 2025</t>
+        </is>
+      </c>
+      <c r="B2488" t="inlineStr"/>
       <c r="C2488" t="inlineStr"/>
-      <c r="D2488" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D2488" t="inlineStr"/>
       <c r="E2488" t="inlineStr"/>
-      <c r="F2488" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F2488" t="inlineStr"/>
+      <c r="G2488" t="inlineStr"/>
     </row>
     <row r="2489">
       <c r="A2489" t="inlineStr">
@@ -68037,24 +68029,24 @@
       </c>
       <c r="B2489" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAY</t>
+          <t>PPI MoMMAY</t>
         </is>
       </c>
       <c r="C2489" t="inlineStr"/>
       <c r="D2489" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E2489" t="inlineStr"/>
       <c r="F2489" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2489" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -68066,17 +68058,21 @@
       </c>
       <c r="B2490" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
+          <t>Core PPI MoMMAY</t>
         </is>
       </c>
       <c r="C2490" t="inlineStr"/>
       <c r="D2490" t="inlineStr">
         <is>
-          <t>247K</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E2490" t="inlineStr"/>
-      <c r="F2490" t="inlineStr"/>
+      <c r="F2490" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2490" t="inlineStr">
         <is>
           <t>2</t>
@@ -68091,16 +68087,24 @@
       </c>
       <c r="B2491" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
+          <t>Initial Jobless ClaimsJUN/07</t>
         </is>
       </c>
       <c r="C2491" t="inlineStr"/>
-      <c r="D2491" t="inlineStr"/>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>247K</t>
+        </is>
+      </c>
       <c r="E2491" t="inlineStr"/>
-      <c r="F2491" t="inlineStr"/>
+      <c r="F2491" t="inlineStr">
+        <is>
+          <t>250.0K</t>
+        </is>
+      </c>
       <c r="G2491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -68112,19 +68116,19 @@
       </c>
       <c r="B2492" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAY</t>
+          <t>Continuing Jobless ClaimsMAY/31</t>
         </is>
       </c>
       <c r="C2492" t="inlineStr"/>
       <c r="D2492" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1904K</t>
         </is>
       </c>
       <c r="E2492" t="inlineStr"/>
       <c r="F2492" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1908.0K</t>
         </is>
       </c>
       <c r="G2492" t="inlineStr">
@@ -68141,13 +68145,21 @@
       </c>
       <c r="B2493" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
+          <t>Core PPI YoYMAY</t>
         </is>
       </c>
       <c r="C2493" t="inlineStr"/>
-      <c r="D2493" t="inlineStr"/>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="E2493" t="inlineStr"/>
-      <c r="F2493" t="inlineStr"/>
+      <c r="F2493" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G2493" t="inlineStr">
         <is>
           <t>3</t>
@@ -68162,19 +68174,19 @@
       </c>
       <c r="B2494" t="inlineStr">
         <is>
-          <t>PPIMAY</t>
+          <t>Jobless Claims 4-week AverageJUN/07</t>
         </is>
       </c>
       <c r="C2494" t="inlineStr"/>
       <c r="D2494" t="inlineStr">
         <is>
-          <t>147.677</t>
+          <t>235K</t>
         </is>
       </c>
       <c r="E2494" t="inlineStr"/>
       <c r="F2494" t="inlineStr">
         <is>
-          <t>147.8</t>
+          <t>237.0K</t>
         </is>
       </c>
       <c r="G2494" t="inlineStr">
@@ -68191,19 +68203,19 @@
       </c>
       <c r="B2495" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
+          <t>PPIMAY</t>
         </is>
       </c>
       <c r="C2495" t="inlineStr"/>
       <c r="D2495" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>147.677</t>
         </is>
       </c>
       <c r="E2495" t="inlineStr"/>
       <c r="F2495" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>147.8</t>
         </is>
       </c>
       <c r="G2495" t="inlineStr">
@@ -68220,19 +68232,19 @@
       </c>
       <c r="B2496" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
+          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
         </is>
       </c>
       <c r="C2496" t="inlineStr"/>
       <c r="D2496" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2496" t="inlineStr"/>
       <c r="F2496" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2496" t="inlineStr">
@@ -68249,19 +68261,19 @@
       </c>
       <c r="B2497" t="inlineStr">
         <is>
-          <t>PPI YoYMAY</t>
+          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
         </is>
       </c>
       <c r="C2497" t="inlineStr"/>
       <c r="D2497" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="E2497" t="inlineStr"/>
       <c r="F2497" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G2497" t="inlineStr">
@@ -68273,22 +68285,26 @@
     <row r="2498">
       <c r="A2498" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2498" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
+          <t>PPI YoYMAY</t>
         </is>
       </c>
       <c r="C2498" t="inlineStr"/>
       <c r="D2498" t="inlineStr">
         <is>
-          <t>122Bcf</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E2498" t="inlineStr"/>
-      <c r="F2498" t="inlineStr"/>
+      <c r="F2498" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="G2498" t="inlineStr">
         <is>
           <t>3</t>
@@ -68298,18 +68314,18 @@
     <row r="2499">
       <c r="A2499" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2499" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2499" t="inlineStr"/>
       <c r="D2499" t="inlineStr">
         <is>
-          <t>4.170%</t>
+          <t>122Bcf</t>
         </is>
       </c>
       <c r="E2499" t="inlineStr"/>
@@ -68328,13 +68344,13 @@
       </c>
       <c r="B2500" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2500" t="inlineStr"/>
       <c r="D2500" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.170%</t>
         </is>
       </c>
       <c r="E2500" t="inlineStr"/>
@@ -68348,18 +68364,18 @@
     <row r="2501">
       <c r="A2501" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2501" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJUN/12</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2501" t="inlineStr"/>
       <c r="D2501" t="inlineStr">
         <is>
-          <t>5.99%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E2501" t="inlineStr"/>
@@ -68378,13 +68394,13 @@
       </c>
       <c r="B2502" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJUN/12</t>
+          <t>15-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C2502" t="inlineStr"/>
       <c r="D2502" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>5.99%</t>
         </is>
       </c>
       <c r="E2502" t="inlineStr"/>
@@ -68403,11 +68419,15 @@
       </c>
       <c r="B2503" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C2503" t="inlineStr"/>
-      <c r="D2503" t="inlineStr"/>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
       <c r="E2503" t="inlineStr"/>
       <c r="F2503" t="inlineStr"/>
       <c r="G2503" t="inlineStr">
@@ -68419,12 +68439,12 @@
     <row r="2504">
       <c r="A2504" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2504" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C2504" t="inlineStr"/>
@@ -68440,67 +68460,63 @@
     <row r="2505">
       <c r="A2505" t="inlineStr">
         <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B2505" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="C2505" t="inlineStr"/>
-      <c r="D2505" t="inlineStr"/>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>4.819%</t>
+        </is>
+      </c>
       <c r="E2505" t="inlineStr"/>
       <c r="F2505" t="inlineStr"/>
-      <c r="G2505" t="inlineStr"/>
+      <c r="G2505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2506">
       <c r="A2506" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2506" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B2506" t="inlineStr"/>
       <c r="C2506" t="inlineStr"/>
-      <c r="D2506" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
+      <c r="D2506" t="inlineStr"/>
       <c r="E2506" t="inlineStr"/>
       <c r="F2506" t="inlineStr"/>
-      <c r="G2506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2506" t="inlineStr"/>
     </row>
     <row r="2507">
       <c r="A2507" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2507" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C2507" t="inlineStr"/>
       <c r="D2507" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>$6.67T</t>
         </is>
       </c>
       <c r="E2507" t="inlineStr"/>
-      <c r="F2507" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
+      <c r="F2507" t="inlineStr"/>
       <c r="G2507" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -68512,24 +68528,24 @@
       </c>
       <c r="B2508" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C2508" t="inlineStr"/>
       <c r="D2508" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E2508" t="inlineStr"/>
       <c r="F2508" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G2508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -68541,19 +68557,19 @@
       </c>
       <c r="B2509" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2509" t="inlineStr"/>
       <c r="D2509" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="E2509" t="inlineStr"/>
       <c r="F2509" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G2509" t="inlineStr">
@@ -68570,19 +68586,19 @@
       </c>
       <c r="B2510" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUN</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2510" t="inlineStr"/>
       <c r="D2510" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E2510" t="inlineStr"/>
       <c r="F2510" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G2510" t="inlineStr">
@@ -68599,19 +68615,19 @@
       </c>
       <c r="B2511" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C2511" t="inlineStr"/>
       <c r="D2511" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="E2511" t="inlineStr"/>
       <c r="F2511" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G2511" t="inlineStr">
@@ -68623,18 +68639,26 @@
     <row r="2512">
       <c r="A2512" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2512" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2512" t="inlineStr"/>
-      <c r="D2512" t="inlineStr"/>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="E2512" t="inlineStr"/>
-      <c r="F2512" t="inlineStr"/>
+      <c r="F2512" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G2512" t="inlineStr">
         <is>
           <t>3</t>
@@ -68649,7 +68673,7 @@
       </c>
       <c r="B2513" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C2513" t="inlineStr"/>
@@ -68665,20 +68689,28 @@
     <row r="2514">
       <c r="A2514" t="inlineStr">
         <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B2514" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
+        </is>
+      </c>
       <c r="C2514" t="inlineStr"/>
       <c r="D2514" t="inlineStr"/>
       <c r="E2514" t="inlineStr"/>
       <c r="F2514" t="inlineStr"/>
-      <c r="G2514" t="inlineStr"/>
+      <c r="G2514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2515">
       <c r="A2515" t="inlineStr">
         <is>
-          <t>Monday June 16 2025</t>
+          <t>Sunday June 15 2025</t>
         </is>
       </c>
       <c r="B2515" t="inlineStr"/>
@@ -68688,6 +68720,19 @@
       <c r="F2515" t="inlineStr"/>
       <c r="G2515" t="inlineStr"/>
     </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>Monday June 16 2025</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr"/>
+      <c r="C2516" t="inlineStr"/>
+      <c r="D2516" t="inlineStr"/>
+      <c r="E2516" t="inlineStr"/>
+      <c r="F2516" t="inlineStr"/>
+      <c r="G2516" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2516"/>
+  <dimension ref="A1:G2517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67132,7 +67132,7 @@
     <row r="2453">
       <c r="A2453" t="inlineStr">
         <is>
-          <t>Monday June 09 2025</t>
+          <t>Sunday June 08 2025</t>
         </is>
       </c>
       <c r="B2453" t="inlineStr"/>
@@ -67145,57 +67145,41 @@
     <row r="2454">
       <c r="A2454" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
+          <t>Monday June 09 2025</t>
+        </is>
+      </c>
+      <c r="B2454" t="inlineStr"/>
       <c r="C2454" t="inlineStr"/>
-      <c r="D2454" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2454" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2454" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G2454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D2454" t="inlineStr"/>
+      <c r="E2454" t="inlineStr"/>
+      <c r="F2454" t="inlineStr"/>
+      <c r="G2454" t="inlineStr"/>
     </row>
     <row r="2455">
       <c r="A2455" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2455" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
+          <t>Wholesale Inventories MoMAPR</t>
         </is>
       </c>
       <c r="C2455" t="inlineStr"/>
       <c r="D2455" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E2455" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E2455" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2455" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="G2455" t="inlineStr">
@@ -67207,22 +67191,26 @@
     <row r="2456">
       <c r="A2456" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2456" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Consumer Inflation ExpectationsMAY</t>
         </is>
       </c>
       <c r="C2456" t="inlineStr"/>
       <c r="D2456" t="inlineStr">
         <is>
-          <t>4.250%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E2456" t="inlineStr"/>
-      <c r="F2456" t="inlineStr"/>
+      <c r="F2456" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G2456" t="inlineStr">
         <is>
           <t>3</t>
@@ -67237,13 +67225,13 @@
       </c>
       <c r="B2457" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C2457" t="inlineStr"/>
       <c r="D2457" t="inlineStr">
         <is>
-          <t>4.150%</t>
+          <t>4.250%</t>
         </is>
       </c>
       <c r="E2457" t="inlineStr"/>
@@ -67257,56 +67245,56 @@
     <row r="2458">
       <c r="A2458" t="inlineStr">
         <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2458" t="inlineStr"/>
-      <c r="D2458" t="inlineStr"/>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>4.150%</t>
+        </is>
+      </c>
       <c r="E2458" t="inlineStr"/>
       <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr"/>
+      <c r="G2458" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2459">
       <c r="A2459" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
+          <t>Tuesday June 10 2025</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr"/>
       <c r="C2459" t="inlineStr"/>
-      <c r="D2459" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
+      <c r="D2459" t="inlineStr"/>
       <c r="E2459" t="inlineStr"/>
       <c r="F2459" t="inlineStr"/>
-      <c r="G2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2459" t="inlineStr"/>
     </row>
     <row r="2460">
       <c r="A2460" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2460" t="inlineStr">
         <is>
-          <t>Redbook YoYJUN/07</t>
+          <t>NFIB Business Optimism IndexMAY</t>
         </is>
       </c>
       <c r="C2460" t="inlineStr"/>
       <c r="D2460" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>95.8</t>
         </is>
       </c>
       <c r="E2460" t="inlineStr"/>
@@ -67320,18 +67308,18 @@
     <row r="2461">
       <c r="A2461" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B2461" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Redbook YoYJUN/07</t>
         </is>
       </c>
       <c r="C2461" t="inlineStr"/>
       <c r="D2461" t="inlineStr">
         <is>
-          <t>3.930%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="E2461" t="inlineStr"/>
@@ -67345,18 +67333,18 @@
     <row r="2462">
       <c r="A2462" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2462" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2462" t="inlineStr"/>
       <c r="D2462" t="inlineStr">
         <is>
-          <t>3.824%</t>
+          <t>3.930%</t>
         </is>
       </c>
       <c r="E2462" t="inlineStr"/>
@@ -67370,56 +67358,56 @@
     <row r="2463">
       <c r="A2463" t="inlineStr">
         <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C2463" t="inlineStr"/>
-      <c r="D2463" t="inlineStr"/>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>3.824%</t>
+        </is>
+      </c>
       <c r="E2463" t="inlineStr"/>
       <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr"/>
+      <c r="G2463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2464">
       <c r="A2464" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
+          <t>Wednesday June 11 2025</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr"/>
       <c r="C2464" t="inlineStr"/>
-      <c r="D2464" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
+      <c r="D2464" t="inlineStr"/>
       <c r="E2464" t="inlineStr"/>
       <c r="F2464" t="inlineStr"/>
-      <c r="G2464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2464" t="inlineStr"/>
     </row>
     <row r="2465">
       <c r="A2465" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2465" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
+          <t>API Crude Oil Stock ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2465" t="inlineStr"/>
       <c r="D2465" t="inlineStr">
         <is>
-          <t>6.92%</t>
+          <t>-3.3M</t>
         </is>
       </c>
       <c r="E2465" t="inlineStr"/>
@@ -67438,20 +67426,20 @@
       </c>
       <c r="B2466" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
+          <t>MBA 30-Year Mortgage RateJUN/06</t>
         </is>
       </c>
       <c r="C2466" t="inlineStr"/>
       <c r="D2466" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>6.92%</t>
         </is>
       </c>
       <c r="E2466" t="inlineStr"/>
       <c r="F2466" t="inlineStr"/>
       <c r="G2466" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -67463,13 +67451,13 @@
       </c>
       <c r="B2467" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
+          <t>MBA Mortgage ApplicationsJUN/06</t>
         </is>
       </c>
       <c r="C2467" t="inlineStr"/>
       <c r="D2467" t="inlineStr">
         <is>
-          <t>226.4</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="E2467" t="inlineStr"/>
@@ -67488,13 +67476,13 @@
       </c>
       <c r="B2468" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
+          <t>MBA Mortgage Market IndexJUN/06</t>
         </is>
       </c>
       <c r="C2468" t="inlineStr"/>
       <c r="D2468" t="inlineStr">
         <is>
-          <t>611.8</t>
+          <t>226.4</t>
         </is>
       </c>
       <c r="E2468" t="inlineStr"/>
@@ -67513,13 +67501,13 @@
       </c>
       <c r="B2469" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUN/06</t>
+          <t>MBA Mortgage Refinance IndexJUN/06</t>
         </is>
       </c>
       <c r="C2469" t="inlineStr"/>
       <c r="D2469" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>611.8</t>
         </is>
       </c>
       <c r="E2469" t="inlineStr"/>
@@ -67533,29 +67521,25 @@
     <row r="2470">
       <c r="A2470" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2470" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMMAY</t>
+          <t>MBA Purchase IndexJUN/06</t>
         </is>
       </c>
       <c r="C2470" t="inlineStr"/>
       <c r="D2470" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E2470" t="inlineStr"/>
-      <c r="F2470" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F2470" t="inlineStr"/>
       <c r="G2470" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -67567,19 +67551,19 @@
       </c>
       <c r="B2471" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYMAY</t>
+          <t>Core Inflation Rate MoMMAY</t>
         </is>
       </c>
       <c r="C2471" t="inlineStr"/>
       <c r="D2471" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2471" t="inlineStr"/>
       <c r="F2471" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G2471" t="inlineStr">
@@ -67596,19 +67580,19 @@
       </c>
       <c r="B2472" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMMAY</t>
+          <t>Core Inflation Rate YoYMAY</t>
         </is>
       </c>
       <c r="C2472" t="inlineStr"/>
       <c r="D2472" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E2472" t="inlineStr"/>
       <c r="F2472" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G2472" t="inlineStr">
@@ -67625,19 +67609,19 @@
       </c>
       <c r="B2473" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYMAY</t>
+          <t>Inflation Rate MoMMAY</t>
         </is>
       </c>
       <c r="C2473" t="inlineStr"/>
       <c r="D2473" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E2473" t="inlineStr"/>
       <c r="F2473" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2473" t="inlineStr">
@@ -67654,24 +67638,24 @@
       </c>
       <c r="B2474" t="inlineStr">
         <is>
-          <t>CPIMAY</t>
+          <t>Inflation Rate YoYMAY</t>
         </is>
       </c>
       <c r="C2474" t="inlineStr"/>
       <c r="D2474" t="inlineStr">
         <is>
-          <t>320.795</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E2474" t="inlineStr"/>
       <c r="F2474" t="inlineStr">
         <is>
-          <t>321.9</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G2474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -67683,19 +67667,19 @@
       </c>
       <c r="B2475" t="inlineStr">
         <is>
-          <t>CPI s.aMAY</t>
+          <t>CPIMAY</t>
         </is>
       </c>
       <c r="C2475" t="inlineStr"/>
       <c r="D2475" t="inlineStr">
         <is>
-          <t>320.321</t>
+          <t>320.795</t>
         </is>
       </c>
       <c r="E2475" t="inlineStr"/>
       <c r="F2475" t="inlineStr">
         <is>
-          <t>321.6</t>
+          <t>321.9</t>
         </is>
       </c>
       <c r="G2475" t="inlineStr">
@@ -67707,22 +67691,26 @@
     <row r="2476">
       <c r="A2476" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2476" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
+          <t>CPI s.aMAY</t>
         </is>
       </c>
       <c r="C2476" t="inlineStr"/>
       <c r="D2476" t="inlineStr">
         <is>
-          <t>-4.304M</t>
+          <t>320.321</t>
         </is>
       </c>
       <c r="E2476" t="inlineStr"/>
-      <c r="F2476" t="inlineStr"/>
+      <c r="F2476" t="inlineStr">
+        <is>
+          <t>321.6</t>
+        </is>
+      </c>
       <c r="G2476" t="inlineStr">
         <is>
           <t>2</t>
@@ -67737,13 +67725,13 @@
       </c>
       <c r="B2477" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
+          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2477" t="inlineStr"/>
       <c r="D2477" t="inlineStr">
         <is>
-          <t>5.219M</t>
+          <t>-4.304M</t>
         </is>
       </c>
       <c r="E2477" t="inlineStr"/>
@@ -67762,20 +67750,20 @@
       </c>
       <c r="B2478" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
+          <t>EIA Gasoline Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2478" t="inlineStr"/>
       <c r="D2478" t="inlineStr">
         <is>
-          <t>0.389M</t>
+          <t>5.219M</t>
         </is>
       </c>
       <c r="E2478" t="inlineStr"/>
       <c r="F2478" t="inlineStr"/>
       <c r="G2478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -67787,13 +67775,13 @@
       </c>
       <c r="B2479" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
+          <t>EIA Crude Oil Imports ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2479" t="inlineStr"/>
       <c r="D2479" t="inlineStr">
         <is>
-          <t>0.576M</t>
+          <t>0.389M</t>
         </is>
       </c>
       <c r="E2479" t="inlineStr"/>
@@ -67812,13 +67800,13 @@
       </c>
       <c r="B2480" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2480" t="inlineStr"/>
       <c r="D2480" t="inlineStr">
         <is>
-          <t>0.182M</t>
+          <t>0.576M</t>
         </is>
       </c>
       <c r="E2480" t="inlineStr"/>
@@ -67837,13 +67825,13 @@
       </c>
       <c r="B2481" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
+          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2481" t="inlineStr"/>
       <c r="D2481" t="inlineStr">
         <is>
-          <t>4.23M</t>
+          <t>0.182M</t>
         </is>
       </c>
       <c r="E2481" t="inlineStr"/>
@@ -67862,13 +67850,13 @@
       </c>
       <c r="B2482" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
+          <t>EIA Distillate Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2482" t="inlineStr"/>
       <c r="D2482" t="inlineStr">
         <is>
-          <t>-0.714M</t>
+          <t>4.23M</t>
         </is>
       </c>
       <c r="E2482" t="inlineStr"/>
@@ -67887,13 +67875,13 @@
       </c>
       <c r="B2483" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
+          <t>EIA Gasoline Production ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2483" t="inlineStr"/>
       <c r="D2483" t="inlineStr">
         <is>
-          <t>-0.282M</t>
+          <t>-0.714M</t>
         </is>
       </c>
       <c r="E2483" t="inlineStr"/>
@@ -67912,13 +67900,13 @@
       </c>
       <c r="B2484" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
+          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2484" t="inlineStr"/>
       <c r="D2484" t="inlineStr">
         <is>
-          <t>0.67M</t>
+          <t>-0.282M</t>
         </is>
       </c>
       <c r="E2484" t="inlineStr"/>
@@ -67932,18 +67920,18 @@
     <row r="2485">
       <c r="A2485" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2485" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2485" t="inlineStr"/>
       <c r="D2485" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>0.67M</t>
         </is>
       </c>
       <c r="E2485" t="inlineStr"/>
@@ -67957,18 +67945,18 @@
     <row r="2486">
       <c r="A2486" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2486" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2486" t="inlineStr"/>
       <c r="D2486" t="inlineStr">
         <is>
-          <t>4.342%</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E2486" t="inlineStr"/>
@@ -67982,73 +67970,69 @@
     <row r="2487">
       <c r="A2487" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2487" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementMAY</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C2487" t="inlineStr"/>
       <c r="D2487" t="inlineStr">
         <is>
-          <t>$258B</t>
+          <t>4.342%</t>
         </is>
       </c>
       <c r="E2487" t="inlineStr"/>
-      <c r="F2487" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
+      <c r="F2487" t="inlineStr"/>
       <c r="G2487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2488">
       <c r="A2488" t="inlineStr">
         <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B2488" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementMAY</t>
+        </is>
+      </c>
       <c r="C2488" t="inlineStr"/>
-      <c r="D2488" t="inlineStr"/>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>$258B</t>
+        </is>
+      </c>
       <c r="E2488" t="inlineStr"/>
-      <c r="F2488" t="inlineStr"/>
-      <c r="G2488" t="inlineStr"/>
+      <c r="F2488" t="inlineStr">
+        <is>
+          <t>$-312.0B</t>
+        </is>
+      </c>
+      <c r="G2488" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2489">
       <c r="A2489" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2489" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
+          <t>Thursday June 12 2025</t>
+        </is>
+      </c>
+      <c r="B2489" t="inlineStr"/>
       <c r="C2489" t="inlineStr"/>
-      <c r="D2489" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D2489" t="inlineStr"/>
       <c r="E2489" t="inlineStr"/>
-      <c r="F2489" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F2489" t="inlineStr"/>
+      <c r="G2489" t="inlineStr"/>
     </row>
     <row r="2490">
       <c r="A2490" t="inlineStr">
@@ -68058,24 +68042,24 @@
       </c>
       <c r="B2490" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAY</t>
+          <t>PPI MoMMAY</t>
         </is>
       </c>
       <c r="C2490" t="inlineStr"/>
       <c r="D2490" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E2490" t="inlineStr"/>
       <c r="F2490" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2490" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -68087,19 +68071,19 @@
       </c>
       <c r="B2491" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
+          <t>Core PPI MoMMAY</t>
         </is>
       </c>
       <c r="C2491" t="inlineStr"/>
       <c r="D2491" t="inlineStr">
         <is>
-          <t>247K</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E2491" t="inlineStr"/>
       <c r="F2491" t="inlineStr">
         <is>
-          <t>250.0K</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2491" t="inlineStr">
@@ -68116,24 +68100,24 @@
       </c>
       <c r="B2492" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
+          <t>Initial Jobless ClaimsJUN/07</t>
         </is>
       </c>
       <c r="C2492" t="inlineStr"/>
       <c r="D2492" t="inlineStr">
         <is>
-          <t>1904K</t>
+          <t>247K</t>
         </is>
       </c>
       <c r="E2492" t="inlineStr"/>
       <c r="F2492" t="inlineStr">
         <is>
-          <t>1908.0K</t>
+          <t>250.0K</t>
         </is>
       </c>
       <c r="G2492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -68145,19 +68129,19 @@
       </c>
       <c r="B2493" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAY</t>
+          <t>Continuing Jobless ClaimsMAY/31</t>
         </is>
       </c>
       <c r="C2493" t="inlineStr"/>
       <c r="D2493" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1904K</t>
         </is>
       </c>
       <c r="E2493" t="inlineStr"/>
       <c r="F2493" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1908.0K</t>
         </is>
       </c>
       <c r="G2493" t="inlineStr">
@@ -68174,19 +68158,19 @@
       </c>
       <c r="B2494" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
+          <t>Core PPI YoYMAY</t>
         </is>
       </c>
       <c r="C2494" t="inlineStr"/>
       <c r="D2494" t="inlineStr">
         <is>
-          <t>235K</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="E2494" t="inlineStr"/>
       <c r="F2494" t="inlineStr">
         <is>
-          <t>237.0K</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="G2494" t="inlineStr">
@@ -68203,19 +68187,19 @@
       </c>
       <c r="B2495" t="inlineStr">
         <is>
-          <t>PPIMAY</t>
+          <t>Jobless Claims 4-week AverageJUN/07</t>
         </is>
       </c>
       <c r="C2495" t="inlineStr"/>
       <c r="D2495" t="inlineStr">
         <is>
-          <t>147.677</t>
+          <t>235K</t>
         </is>
       </c>
       <c r="E2495" t="inlineStr"/>
       <c r="F2495" t="inlineStr">
         <is>
-          <t>147.8</t>
+          <t>237.0K</t>
         </is>
       </c>
       <c r="G2495" t="inlineStr">
@@ -68232,19 +68216,19 @@
       </c>
       <c r="B2496" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
+          <t>PPIMAY</t>
         </is>
       </c>
       <c r="C2496" t="inlineStr"/>
       <c r="D2496" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>147.677</t>
         </is>
       </c>
       <c r="E2496" t="inlineStr"/>
       <c r="F2496" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>147.8</t>
         </is>
       </c>
       <c r="G2496" t="inlineStr">
@@ -68261,19 +68245,19 @@
       </c>
       <c r="B2497" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
+          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
         </is>
       </c>
       <c r="C2497" t="inlineStr"/>
       <c r="D2497" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E2497" t="inlineStr"/>
       <c r="F2497" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2497" t="inlineStr">
@@ -68290,19 +68274,19 @@
       </c>
       <c r="B2498" t="inlineStr">
         <is>
-          <t>PPI YoYMAY</t>
+          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
         </is>
       </c>
       <c r="C2498" t="inlineStr"/>
       <c r="D2498" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="E2498" t="inlineStr"/>
       <c r="F2498" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G2498" t="inlineStr">
@@ -68314,22 +68298,26 @@
     <row r="2499">
       <c r="A2499" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2499" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
+          <t>PPI YoYMAY</t>
         </is>
       </c>
       <c r="C2499" t="inlineStr"/>
       <c r="D2499" t="inlineStr">
         <is>
-          <t>122Bcf</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E2499" t="inlineStr"/>
-      <c r="F2499" t="inlineStr"/>
+      <c r="F2499" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="G2499" t="inlineStr">
         <is>
           <t>3</t>
@@ -68339,18 +68327,18 @@
     <row r="2500">
       <c r="A2500" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2500" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C2500" t="inlineStr"/>
       <c r="D2500" t="inlineStr">
         <is>
-          <t>4.170%</t>
+          <t>122Bcf</t>
         </is>
       </c>
       <c r="E2500" t="inlineStr"/>
@@ -68369,13 +68357,13 @@
       </c>
       <c r="B2501" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2501" t="inlineStr"/>
       <c r="D2501" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.170%</t>
         </is>
       </c>
       <c r="E2501" t="inlineStr"/>
@@ -68389,18 +68377,18 @@
     <row r="2502">
       <c r="A2502" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2502" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJUN/12</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2502" t="inlineStr"/>
       <c r="D2502" t="inlineStr">
         <is>
-          <t>5.99%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E2502" t="inlineStr"/>
@@ -68419,13 +68407,13 @@
       </c>
       <c r="B2503" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJUN/12</t>
+          <t>15-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C2503" t="inlineStr"/>
       <c r="D2503" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>5.99%</t>
         </is>
       </c>
       <c r="E2503" t="inlineStr"/>
@@ -68444,11 +68432,15 @@
       </c>
       <c r="B2504" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C2504" t="inlineStr"/>
-      <c r="D2504" t="inlineStr"/>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
       <c r="E2504" t="inlineStr"/>
       <c r="F2504" t="inlineStr"/>
       <c r="G2504" t="inlineStr">
@@ -68460,20 +68452,16 @@
     <row r="2505">
       <c r="A2505" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2505" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C2505" t="inlineStr"/>
-      <c r="D2505" t="inlineStr">
-        <is>
-          <t>4.819%</t>
-        </is>
-      </c>
+      <c r="D2505" t="inlineStr"/>
       <c r="E2505" t="inlineStr"/>
       <c r="F2505" t="inlineStr"/>
       <c r="G2505" t="inlineStr">
@@ -68485,67 +68473,63 @@
     <row r="2506">
       <c r="A2506" t="inlineStr">
         <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B2506" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="C2506" t="inlineStr"/>
-      <c r="D2506" t="inlineStr"/>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>4.819%</t>
+        </is>
+      </c>
       <c r="E2506" t="inlineStr"/>
       <c r="F2506" t="inlineStr"/>
-      <c r="G2506" t="inlineStr"/>
+      <c r="G2506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2507">
       <c r="A2507" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2507" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B2507" t="inlineStr"/>
       <c r="C2507" t="inlineStr"/>
-      <c r="D2507" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
+      <c r="D2507" t="inlineStr"/>
       <c r="E2507" t="inlineStr"/>
       <c r="F2507" t="inlineStr"/>
-      <c r="G2507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2507" t="inlineStr"/>
     </row>
     <row r="2508">
       <c r="A2508" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2508" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C2508" t="inlineStr"/>
       <c r="D2508" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>$6.67T</t>
         </is>
       </c>
       <c r="E2508" t="inlineStr"/>
-      <c r="F2508" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
+      <c r="F2508" t="inlineStr"/>
       <c r="G2508" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -68557,24 +68541,24 @@
       </c>
       <c r="B2509" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C2509" t="inlineStr"/>
       <c r="D2509" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E2509" t="inlineStr"/>
       <c r="F2509" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G2509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -68586,19 +68570,19 @@
       </c>
       <c r="B2510" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2510" t="inlineStr"/>
       <c r="D2510" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="E2510" t="inlineStr"/>
       <c r="F2510" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G2510" t="inlineStr">
@@ -68615,19 +68599,19 @@
       </c>
       <c r="B2511" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUN</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2511" t="inlineStr"/>
       <c r="D2511" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E2511" t="inlineStr"/>
       <c r="F2511" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G2511" t="inlineStr">
@@ -68644,19 +68628,19 @@
       </c>
       <c r="B2512" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C2512" t="inlineStr"/>
       <c r="D2512" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="E2512" t="inlineStr"/>
       <c r="F2512" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G2512" t="inlineStr">
@@ -68668,18 +68652,26 @@
     <row r="2513">
       <c r="A2513" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2513" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2513" t="inlineStr"/>
-      <c r="D2513" t="inlineStr"/>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="E2513" t="inlineStr"/>
-      <c r="F2513" t="inlineStr"/>
+      <c r="F2513" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G2513" t="inlineStr">
         <is>
           <t>3</t>
@@ -68694,7 +68686,7 @@
       </c>
       <c r="B2514" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C2514" t="inlineStr"/>
@@ -68710,20 +68702,28 @@
     <row r="2515">
       <c r="A2515" t="inlineStr">
         <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B2515" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
+        </is>
+      </c>
       <c r="C2515" t="inlineStr"/>
       <c r="D2515" t="inlineStr"/>
       <c r="E2515" t="inlineStr"/>
       <c r="F2515" t="inlineStr"/>
-      <c r="G2515" t="inlineStr"/>
+      <c r="G2515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2516">
       <c r="A2516" t="inlineStr">
         <is>
-          <t>Monday June 16 2025</t>
+          <t>Sunday June 15 2025</t>
         </is>
       </c>
       <c r="B2516" t="inlineStr"/>
@@ -68733,6 +68733,19 @@
       <c r="F2516" t="inlineStr"/>
       <c r="G2516" t="inlineStr"/>
     </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>Monday June 16 2025</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr"/>
+      <c r="C2517" t="inlineStr"/>
+      <c r="D2517" t="inlineStr"/>
+      <c r="E2517" t="inlineStr"/>
+      <c r="F2517" t="inlineStr"/>
+      <c r="G2517" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2517"/>
+  <dimension ref="A1:G2518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66663,10 +66663,14 @@
           <t>Non Farm PayrollsMAY</t>
         </is>
       </c>
-      <c r="C2436" t="inlineStr"/>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>139K</t>
+        </is>
+      </c>
       <c r="D2436" t="inlineStr">
         <is>
-          <t>177K</t>
+          <t>147K</t>
         </is>
       </c>
       <c r="E2436" t="inlineStr">
@@ -66696,7 +66700,11 @@
           <t>Unemployment RateMAY</t>
         </is>
       </c>
-      <c r="C2437" t="inlineStr"/>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="D2437" t="inlineStr">
         <is>
           <t>4.2%</t>
@@ -66729,7 +66737,11 @@
           <t>Average Hourly Earnings MoMMAY</t>
         </is>
       </c>
-      <c r="C2438" t="inlineStr"/>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="D2438" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -66762,10 +66774,14 @@
           <t>Average Hourly Earnings YoYMAY</t>
         </is>
       </c>
-      <c r="C2439" t="inlineStr"/>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="D2439" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E2439" t="inlineStr">
@@ -66795,7 +66811,11 @@
           <t>Participation RateMAY</t>
         </is>
       </c>
-      <c r="C2440" t="inlineStr"/>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>62.4%</t>
+        </is>
+      </c>
       <c r="D2440" t="inlineStr">
         <is>
           <t>62.6%</t>
@@ -66824,7 +66844,11 @@
           <t>Average Weekly HoursMAY</t>
         </is>
       </c>
-      <c r="C2441" t="inlineStr"/>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="D2441" t="inlineStr">
         <is>
           <t>34.3</t>
@@ -66857,10 +66881,14 @@
           <t>Government PayrollsMAY</t>
         </is>
       </c>
-      <c r="C2442" t="inlineStr"/>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>-1K</t>
+        </is>
+      </c>
       <c r="D2442" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="E2442" t="inlineStr"/>
@@ -66886,10 +66914,14 @@
           <t>Manufacturing PayrollsMAY</t>
         </is>
       </c>
-      <c r="C2443" t="inlineStr"/>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>-8K</t>
+        </is>
+      </c>
       <c r="D2443" t="inlineStr">
         <is>
-          <t>-1K</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="E2443" t="inlineStr">
@@ -66919,10 +66951,14 @@
           <t>Nonfarm Payrolls PrivateMAY</t>
         </is>
       </c>
-      <c r="C2444" t="inlineStr"/>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="D2444" t="inlineStr">
         <is>
-          <t>167K</t>
+          <t>146K</t>
         </is>
       </c>
       <c r="E2444" t="inlineStr">
@@ -66952,7 +66988,11 @@
           <t>U-6 Unemployment RateMAY</t>
         </is>
       </c>
-      <c r="C2445" t="inlineStr"/>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="D2445" t="inlineStr">
         <is>
           <t>7.8%</t>
@@ -66973,39 +67013,51 @@
     <row r="2446">
       <c r="A2446" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
-      <c r="C2446" t="inlineStr"/>
-      <c r="D2446" t="inlineStr"/>
+          <t>Used Car Prices MoMMAY</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E2446" t="inlineStr"/>
       <c r="F2446" t="inlineStr"/>
       <c r="G2446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2447">
       <c r="A2447" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2447" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr"/>
+          <t>Used Car Prices YoYMAY</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="D2447" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="E2447" t="inlineStr"/>
@@ -67019,39 +67071,39 @@
     <row r="2448">
       <c r="A2448" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2448" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C2448" t="inlineStr"/>
-      <c r="D2448" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
+      <c r="D2448" t="inlineStr"/>
       <c r="E2448" t="inlineStr"/>
       <c r="F2448" t="inlineStr"/>
       <c r="G2448" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2449">
-      <c r="A2449" t="inlineStr"/>
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B2449" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMMAY</t>
+          <t>Baker Hughes Oil Rig CountJUN/06</t>
         </is>
       </c>
       <c r="C2449" t="inlineStr"/>
       <c r="D2449" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>461</t>
         </is>
       </c>
       <c r="E2449" t="inlineStr"/>
@@ -67063,16 +67115,20 @@
       </c>
     </row>
     <row r="2450">
-      <c r="A2450" t="inlineStr"/>
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B2450" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/06</t>
         </is>
       </c>
       <c r="C2450" t="inlineStr"/>
       <c r="D2450" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>563</t>
         </is>
       </c>
       <c r="E2450" t="inlineStr"/>
@@ -68109,7 +68165,11 @@
           <t>247K</t>
         </is>
       </c>
-      <c r="E2492" t="inlineStr"/>
+      <c r="E2492" t="inlineStr">
+        <is>
+          <t>235K</t>
+        </is>
+      </c>
       <c r="F2492" t="inlineStr">
         <is>
           <t>250.0K</t>
@@ -68746,6 +68806,35 @@
       <c r="F2517" t="inlineStr"/>
       <c r="G2517" t="inlineStr"/>
     </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>NY Empire State Manufacturing IndexJUN</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr"/>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>-9.2</t>
+        </is>
+      </c>
+      <c r="E2518" t="inlineStr"/>
+      <c r="F2518" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2518" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -67616,7 +67616,11 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="E2471" t="inlineStr"/>
+      <c r="E2471" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2471" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -67674,7 +67678,11 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="E2473" t="inlineStr"/>
+      <c r="E2473" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2473" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -67703,7 +67711,11 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="E2474" t="inlineStr"/>
+      <c r="E2474" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="F2474" t="inlineStr">
         <is>
           <t>2.5%</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -67353,8 +67353,16 @@
           <t>95.8</t>
         </is>
       </c>
-      <c r="E2460" t="inlineStr"/>
-      <c r="F2460" t="inlineStr"/>
+      <c r="E2460" t="inlineStr">
+        <is>
+          <t>95.9</t>
+        </is>
+      </c>
+      <c r="F2460" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
       <c r="G2460" t="inlineStr">
         <is>
           <t>3</t>
@@ -67649,7 +67657,11 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="E2472" t="inlineStr"/>
+      <c r="E2472" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F2472" t="inlineStr">
         <is>
           <t>2.9%</t>
@@ -67713,7 +67725,7 @@
       </c>
       <c r="E2474" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2474" t="inlineStr">
@@ -68077,7 +68089,11 @@
           <t>$258B</t>
         </is>
       </c>
-      <c r="E2488" t="inlineStr"/>
+      <c r="E2488" t="inlineStr">
+        <is>
+          <t>$250B</t>
+        </is>
+      </c>
       <c r="F2488" t="inlineStr">
         <is>
           <t>$-312.0B</t>
@@ -68119,7 +68135,11 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="E2490" t="inlineStr"/>
+      <c r="E2490" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2490" t="inlineStr">
         <is>
           <t>0.1%</t>
@@ -68148,7 +68168,11 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="E2491" t="inlineStr"/>
+      <c r="E2491" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2491" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -68179,7 +68203,7 @@
       </c>
       <c r="E2492" t="inlineStr">
         <is>
-          <t>235K</t>
+          <t>239K</t>
         </is>
       </c>
       <c r="F2492" t="inlineStr">
@@ -68239,7 +68263,11 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="E2494" t="inlineStr"/>
+      <c r="E2494" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F2494" t="inlineStr">
         <is>
           <t>3.1%</t>
@@ -68384,7 +68412,11 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="E2499" t="inlineStr"/>
+      <c r="E2499" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F2499" t="inlineStr">
         <is>
           <t>2.3%</t>
@@ -68622,7 +68654,11 @@
           <t>52.2</t>
         </is>
       </c>
-      <c r="E2509" t="inlineStr"/>
+      <c r="E2509" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
       <c r="F2509" t="inlineStr">
         <is>
           <t>52.1</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2518"/>
+  <dimension ref="A1:G2521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68883,6 +68883,69 @@
         </is>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr"/>
+      <c r="D2519" t="inlineStr"/>
+      <c r="E2519" t="inlineStr"/>
+      <c r="F2519" t="inlineStr"/>
+      <c r="G2519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr"/>
+      <c r="D2520" t="inlineStr"/>
+      <c r="E2520" t="inlineStr"/>
+      <c r="F2520" t="inlineStr"/>
+      <c r="G2520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>NOPA Crush Report</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr"/>
+      <c r="D2521" t="inlineStr"/>
+      <c r="E2521" t="inlineStr"/>
+      <c r="F2521" t="inlineStr"/>
+      <c r="G2521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2521"/>
+  <dimension ref="A1:G2522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67100,10 +67100,14 @@
           <t>Baker Hughes Oil Rig CountJUN/06</t>
         </is>
       </c>
-      <c r="C2449" t="inlineStr"/>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
       <c r="D2449" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>451</t>
         </is>
       </c>
       <c r="E2449" t="inlineStr"/>
@@ -67125,7 +67129,11 @@
           <t>Baker Hughes Total Rigs CountJUN/06</t>
         </is>
       </c>
-      <c r="C2450" t="inlineStr"/>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
       <c r="D2450" t="inlineStr">
         <is>
           <t>563</t>
@@ -68798,7 +68806,11 @@
         </is>
       </c>
       <c r="C2514" t="inlineStr"/>
-      <c r="D2514" t="inlineStr"/>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
       <c r="E2514" t="inlineStr"/>
       <c r="F2514" t="inlineStr"/>
       <c r="G2514" t="inlineStr">
@@ -68819,7 +68831,11 @@
         </is>
       </c>
       <c r="C2515" t="inlineStr"/>
-      <c r="D2515" t="inlineStr"/>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
       <c r="E2515" t="inlineStr"/>
       <c r="F2515" t="inlineStr"/>
       <c r="G2515" t="inlineStr">
@@ -68946,6 +68962,27 @@
         </is>
       </c>
     </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr"/>
+      <c r="D2522" t="inlineStr"/>
+      <c r="E2522" t="inlineStr"/>
+      <c r="F2522" t="inlineStr"/>
+      <c r="G2522" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-16.xlsx
@@ -67171,10 +67171,14 @@
           <t>Consumer Credit ChangeAPR</t>
         </is>
       </c>
-      <c r="C2452" t="inlineStr"/>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>$17.87B</t>
+        </is>
+      </c>
       <c r="D2452" t="inlineStr">
         <is>
-          <t>$10.17B</t>
+          <t>$8.6B</t>
         </is>
       </c>
       <c r="E2452" t="inlineStr">
